--- a/ELF_Base_Framework/src/test/resources/testData/testData.xlsx
+++ b/ELF_Base_Framework/src/test/resources/testData/testData.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BEBDAC-E03F-47A1-A2CE-A72CEF3FDBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="61">
   <si>
     <t>no</t>
   </si>
@@ -124,12 +126,90 @@
   </si>
   <si>
     <t>dummy</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Kumudha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H K </t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>kummi@gmail.com</t>
+  </si>
+  <si>
+    <t>kummi@123</t>
+  </si>
+  <si>
+    <t>Kumu</t>
+  </si>
+  <si>
+    <t>9876543211</t>
+  </si>
+  <si>
+    <t>kummu@gmail.com</t>
+  </si>
+  <si>
+    <t>Shetty</t>
+  </si>
+  <si>
+    <t>Kummi@123</t>
+  </si>
+  <si>
+    <t>@gmail.com</t>
+  </si>
+  <si>
+    <t>thanu</t>
+  </si>
+  <si>
+    <t>#123</t>
+  </si>
+  <si>
+    <t>3rd cross</t>
+  </si>
+  <si>
+    <t>DairyCircle</t>
+  </si>
+  <si>
+    <t>560010</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Addaddress</t>
+  </si>
+  <si>
+    <t>OfficeAddress</t>
+  </si>
+  <si>
+    <t>Thanuja</t>
+  </si>
+  <si>
+    <t>Gopalan Coworks</t>
+  </si>
+  <si>
+    <t>Katriguppe circle</t>
+  </si>
+  <si>
+    <t>Banashankri 3rd stage</t>
+  </si>
+  <si>
+    <t>560085</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,9 +248,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,23 +533,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -490,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -513,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -536,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -559,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -582,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -605,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -628,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -660,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -692,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -724,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -756,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -788,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -820,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -852,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -884,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -916,24 +998,178 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E8" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="E10" r:id="rId10"/>
-    <hyperlink ref="E11" r:id="rId11"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E13" r:id="rId13"/>
-    <hyperlink ref="E14" r:id="rId14"/>
-    <hyperlink ref="E15" r:id="rId15"/>
-    <hyperlink ref="E16" r:id="rId16"/>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F17" r:id="rId17" display="kummi@gmail.com" xr:uid="{BEAD0318-8552-44AB-AD5B-AE5ED338C91F}"/>
+    <hyperlink ref="G17" r:id="rId18" xr:uid="{2B15CE34-82C3-4E41-B496-D37233558219}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6513BB3B-5269-485F-87DF-19CD85715694}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{5CDAB28E-BC55-4EE8-976E-F9BB4D17A39E}"/>
+    <hyperlink ref="G1" r:id="rId2" xr:uid="{D868DE3F-A191-4762-8B90-D329B9E25DE8}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{34C92B12-2827-4290-98D2-2537FBD5E459}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{30981064-7016-4397-BACF-2858CACD15F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
